--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d10 fuels\BCTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5259129A-1A35-48A6-B305-40464C7D7CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB9362-0D1C-4132-8620-39D51DE17027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17220" windowHeight="9912" activeTab="1" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -461,14 +461,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -476,17 +476,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -502,18 +502,18 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:BA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -613,8 +613,68 @@
       <c r="AG1" s="1">
         <v>2050</v>
       </c>
+      <c r="AH1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2070</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -714,8 +774,68 @@
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -815,8 +935,68 @@
       <c r="AG3">
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -916,8 +1096,68 @@
       <c r="AG4">
         <v>0</v>
       </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1017,8 +1257,68 @@
       <c r="AG5">
         <v>0</v>
       </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1118,8 +1418,68 @@
       <c r="AG6">
         <v>0</v>
       </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1579,68 @@
       <c r="AG7">
         <v>0</v>
       </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1320,8 +1740,68 @@
       <c r="AG8" s="3">
         <v>0</v>
       </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1419,6 +1899,66 @@
         <v>0</v>
       </c>
       <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="3">
         <v>0</v>
       </c>
     </row>
